--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER_5\ACC101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER_5\ACC101\Excersie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A6C1FC-BD79-4C76-9EB3-E4BD402F536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C0D97-1C50-454D-892D-AA312F625F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B3224CEB-0079-47FA-AF25-AB6F2CC49778}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B3224CEB-0079-47FA-AF25-AB6F2CC49778}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2-2ADebit&amp;Credit" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>Cash</t>
   </si>
@@ -200,13 +201,113 @@
   </si>
   <si>
     <t>Account receivable</t>
+  </si>
+  <si>
+    <t>General Journal</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Drafting's equipment</t>
+  </si>
+  <si>
+    <t>Shelton's capital</t>
+  </si>
+  <si>
+    <t>Account payable</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Office's land</t>
+  </si>
+  <si>
+    <t>Note payable</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Insurance policy</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Revenue </t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>nulll</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Account receivale</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Withdrew</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0_-;\-[$£-809]* #,##0_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +341,20 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -316,10 +431,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,6 +473,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,26 +489,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1167,40 +1293,40 @@
       </c>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="22"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="12"/>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E19" s="19">
+      <c r="E19" s="23">
         <f>SUM(B16:F16)</f>
         <v>69760</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="H19" s="19">
+      <c r="F19" s="23"/>
+      <c r="H19" s="23">
         <f>SUM(H16:M16)</f>
         <v>69760</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1217,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78C2ECE-D5A8-417C-A500-A2FB8E1EEC88}">
   <dimension ref="C2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="106" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="106" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1232,49 +1358,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="25"/>
       <c r="E3">
         <v>5600</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="J4" s="23" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="J4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="7">
         <v>49960</v>
       </c>
@@ -1286,55 +1412,55 @@
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="24"/>
       <c r="E5">
         <v>-800</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="7">
         <v>600</v>
       </c>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="24"/>
       <c r="E6">
         <v>-1200</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="23"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="7">
         <v>3800</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="24"/>
       <c r="E7">
         <v>-440</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="23"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="7">
         <v>1400</v>
       </c>
@@ -1346,18 +1472,18 @@
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="25"/>
       <c r="E8">
         <f>SUM(E3:E7)</f>
         <v>3160</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="23"/>
+      <c r="K8" s="25"/>
       <c r="L8" s="7">
         <v>14000</v>
       </c>
@@ -1372,165 +1498,165 @@
         <f>SUM(L4:L8)</f>
         <v>69760</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="26"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="7">
         <f>SUM(O4:O8)</f>
         <v>69760</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="J12" s="25" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="J12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="25"/>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
       <c r="M13">
         <v>-800</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="J14" s="20" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="J14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
       <c r="M14">
         <v>-900</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="24"/>
       <c r="E15">
         <v>56000</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
       <c r="M15">
         <v>5000</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="24"/>
       <c r="E16">
         <v>3160</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
       <c r="M16">
         <v>-1200</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="J17" s="20" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="J17" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
       <c r="M17">
         <v>-440</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="24"/>
       <c r="E18">
         <v>-700</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="11">
         <f>SUM(M13:M17)</f>
         <v>1660</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="25"/>
       <c r="E19">
         <f>SUM(E13:E18)</f>
         <v>58460</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20">
         <v>-3200</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21">
         <v>-3800</v>
       </c>
@@ -1547,11 +1673,11 @@
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J24" s="9" t="s">
@@ -1564,11 +1690,11 @@
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25">
         <v>-700</v>
       </c>
@@ -1585,11 +1711,11 @@
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
       <c r="M27">
         <f>SUM(M22,M18,M26)</f>
         <v>49960</v>
@@ -1597,11 +1723,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J25:L25"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C14:E14"/>
@@ -1618,26 +1757,425 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439880F6-F07B-4C68-B5AE-D59F3B04929A}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="19.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="17" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="17"/>
+    <col min="8" max="9" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>105000</v>
+      </c>
+      <c r="H3" s="17">
+        <f>SUMIF($B$3:$B$40,H2,$D$3:$D$40)</f>
+        <v>117900</v>
+      </c>
+      <c r="I3" s="17">
+        <f>SUMIF($C$3:$C$40,H2,$E$3:$E$40)</f>
+        <v>115185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="17">
+        <v>6000</v>
+      </c>
+      <c r="H4" s="17">
+        <f>H3-I3</f>
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="17">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="17">
+        <f>SUM(D3:D5)</f>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="17">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="17">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="18">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="17">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="17">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="17">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="17">
+        <f>D16-E17</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="17">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="17">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="17">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="17">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="17">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="17">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="17">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="17">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="17">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="17">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER_5\ACC101\Excersie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C0D97-1C50-454D-892D-AA312F625F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA67B86E-75C4-4FC8-AF0D-FF183D63FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B3224CEB-0079-47FA-AF25-AB6F2CC49778}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B3224CEB-0079-47FA-AF25-AB6F2CC49778}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="2-2ADebit&amp;Credit" sheetId="3" r:id="rId3"/>
+    <sheet name="2-4A" sheetId="4" r:id="rId4"/>
+    <sheet name="2-5A" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="110">
   <si>
     <t>Cash</t>
   </si>
@@ -260,54 +262,124 @@
     <t>i</t>
   </si>
   <si>
-    <t xml:space="preserve"> Revenue </t>
-  </si>
-  <si>
     <t>j</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>nulll</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Withdrew</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
     <t>Account receivale</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>Withdrew</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>q</t>
+    <t>Owner withdraw</t>
+  </si>
+  <si>
+    <t>Salary Expense</t>
+  </si>
+  <si>
+    <t>Advertising's Expense</t>
+  </si>
+  <si>
+    <t>Maintenance expense</t>
+  </si>
+  <si>
+    <t>Salary expense</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>TRIAL BALANCE</t>
+  </si>
+  <si>
+    <t>Transcation category</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>GENERAL JOURNAL</t>
+  </si>
+  <si>
+    <t>Transations</t>
+  </si>
+  <si>
+    <t>Birch's capital</t>
+  </si>
+  <si>
+    <t>Birch withdrew</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Cr.</t>
+  </si>
+  <si>
+    <t>Statements</t>
+  </si>
+  <si>
+    <t>Pense's capital</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Automobile</t>
+  </si>
+  <si>
+    <t>Utilities expense</t>
+  </si>
+  <si>
+    <t>Pense withdrew</t>
+  </si>
+  <si>
+    <t>Utilites expense</t>
+  </si>
+  <si>
+    <t>TRANSACTIONS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0_-;\-[$£-809]* #,##0_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +431,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,12 +499,101 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -435,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,10 +642,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,8 +705,35 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1293,40 +1518,40 @@
       </c>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="47"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="12"/>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E19" s="23">
+      <c r="E19" s="48">
         <f>SUM(B16:F16)</f>
         <v>69760</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="H19" s="23">
+      <c r="F19" s="48"/>
+      <c r="H19" s="48">
         <f>SUM(H16:M16)</f>
         <v>69760</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1358,49 +1583,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="J2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="50"/>
       <c r="E3">
         <v>5600</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="J4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="25"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="J4" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="50"/>
       <c r="L4" s="7">
         <v>49960</v>
       </c>
@@ -1412,55 +1637,55 @@
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="49"/>
       <c r="E5">
         <v>-800</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="50"/>
       <c r="L5" s="7">
         <v>600</v>
       </c>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="49"/>
       <c r="E6">
         <v>-1200</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="7">
         <v>3800</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="23"/>
+      <c r="N6" s="48"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="49"/>
       <c r="E7">
         <v>-440</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="25"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="7">
         <v>1400</v>
       </c>
@@ -1472,18 +1697,18 @@
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="50"/>
       <c r="E8">
         <f>SUM(E3:E7)</f>
         <v>3160</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="25"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="7">
         <v>14000</v>
       </c>
@@ -1498,165 +1723,165 @@
         <f>SUM(L4:L8)</f>
         <v>69760</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="27"/>
+      <c r="N9" s="52"/>
       <c r="O9" s="7">
         <f>SUM(O4:O8)</f>
         <v>69760</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="J12" s="28" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="J12" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="50"/>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
       <c r="M13">
         <v>-800</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="J14" s="29" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="J14" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
       <c r="M14">
         <v>-900</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="49"/>
       <c r="E15">
         <v>56000</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
       <c r="M15">
         <v>5000</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="49"/>
       <c r="E16">
         <v>3160</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
       <c r="M16">
         <v>-1200</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="J17" s="29" t="s">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="J17" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
       <c r="M17">
         <v>-440</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="49"/>
       <c r="E18">
         <v>-700</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
       <c r="M18" s="11">
         <f>SUM(M13:M17)</f>
         <v>1660</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="50"/>
       <c r="E19">
         <f>SUM(E13:E18)</f>
         <v>58460</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
       <c r="M20">
         <v>-3200</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
       <c r="M21">
         <v>-3800</v>
       </c>
@@ -1673,11 +1898,11 @@
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J24" s="9" t="s">
@@ -1690,11 +1915,11 @@
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
       <c r="M25">
         <v>-700</v>
       </c>
@@ -1711,11 +1936,11 @@
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
       <c r="M27">
         <f>SUM(M22,M18,M26)</f>
         <v>49960</v>
@@ -1770,52 +1995,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439880F6-F07B-4C68-B5AE-D59F3B04929A}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="B1" zoomScale="63" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="19.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="17" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="17" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" style="17" customWidth="1"/>
     <col min="6" max="7" width="8.88671875" style="17"/>
-    <col min="8" max="9" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="17"/>
+    <col min="8" max="9" width="12.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="17"/>
+    <col min="14" max="15" width="11.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="17"/>
+    <col min="17" max="17" width="11.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="17" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="17"/>
+    <col min="20" max="20" width="11.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.88671875" style="17"/>
+    <col min="24" max="24" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D2" s="17" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="H2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="L2" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="O2" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="57"/>
+      <c r="R2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="57"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22">
         <v>105000</v>
       </c>
       <c r="H3" s="17">
@@ -1823,31 +2084,65 @@
         <v>117900</v>
       </c>
       <c r="I3" s="17">
-        <f>SUMIF($C$3:$C$40,H2,$E$3:$E$40)</f>
+        <f>SUMIF($C$6:$C$40,H2,$E$6:$E$40)</f>
         <v>115185</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="L3" s="17">
+        <f>SUMIF($B$3:$B$39,L2,$D$3:$D$40)</f>
+        <v>8250</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0</v>
+      </c>
+      <c r="O3" s="17">
+        <f>SUMIF($B$3:$B$39,O2,$D$3:$D$39)</f>
+        <v>67500</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0</v>
+      </c>
+      <c r="R3" s="17">
+        <v>54000</v>
+      </c>
+      <c r="S3" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="17">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30">
         <v>6000</v>
       </c>
       <c r="H4" s="17">
         <f>H3-I3</f>
         <v>2715</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="L4" s="17">
+        <v>8250</v>
+      </c>
+      <c r="O4" s="17">
+        <v>67500</v>
+      </c>
+      <c r="R4" s="17">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="17">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26">
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
       <c r="C6" s="17" t="s">
         <v>60</v>
       </c>
@@ -1855,9 +2150,29 @@
         <f>SUM(D3:D5)</f>
         <v>156000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="H6" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="57"/>
+      <c r="K6" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="57"/>
+      <c r="N6" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="57"/>
+      <c r="Q6" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="57"/>
+      <c r="T6" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" s="57"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -1866,25 +2181,79 @@
       <c r="D7" s="17">
         <v>54000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="H7" s="18">
+        <v>75000</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>6000</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <f>SUMIF($B$3:$B$39,N6,$D$3:$D$40)</f>
+        <v>30000</v>
+      </c>
+      <c r="O7" s="17">
+        <v>7200</v>
+      </c>
+      <c r="Q7" s="17">
+        <f>SUMIF($B$3:$B$39,Q6,$D$3:$D$41)</f>
+        <v>2250</v>
+      </c>
+      <c r="R7" s="17">
+        <f>SUMIF($C$6:$C$40,Q6,$E$6:$E$40)</f>
+        <v>3450</v>
+      </c>
+      <c r="T7" s="17">
+        <v>9360</v>
+      </c>
+      <c r="U7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="C8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22">
         <v>5400</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="18">
+        <v>75000</v>
+      </c>
+      <c r="K8" s="17">
+        <v>6000</v>
+      </c>
+      <c r="N8" s="17">
+        <f>N7-O7</f>
+        <v>22800</v>
+      </c>
+      <c r="R8" s="17">
+        <f>R7-Q7</f>
+        <v>1200</v>
+      </c>
+      <c r="T8" s="17">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
       <c r="C9" s="17" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="17">
         <v>48600</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1893,17 +2262,59 @@
       <c r="D10" s="18">
         <v>75000</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="H10" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="57"/>
+      <c r="K10" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="57"/>
+      <c r="N10" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="57"/>
+      <c r="T10" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="57"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="C11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23">
         <v>75000</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="H11" s="17">
+        <v>1200</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <f>SUMIF($B$3:$B$39,K10,D3:D40)</f>
+        <v>3000</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17">
+        <f>SUMIF($C$3:$C$40,N10,$E$3:$E$40)</f>
+        <v>60600</v>
+      </c>
+      <c r="U11" s="17">
+        <f>SUM($D$3:$D$5)</f>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -1912,54 +2323,112 @@
       <c r="D12" s="17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="H12" s="17">
+        <v>1200</v>
+      </c>
+      <c r="K12" s="17">
+        <v>3000</v>
+      </c>
+      <c r="O12" s="17">
+        <v>60600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="C13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="B14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22">
         <v>5700</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="17" t="s">
+      <c r="H14" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="K14" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="57"/>
+      <c r="N14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="17">
+      <c r="O14" s="57"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="C15" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27">
         <v>5700</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="H15" s="17">
+        <v>675</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
+        <v>3000</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
+        <v>0</v>
+      </c>
+      <c r="O15" s="20">
+        <f>SUMIF($C$8:$C$39,C20,$E$8:$E$40)</f>
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="17">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26">
         <v>22500</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
+      <c r="H16" s="17">
+        <v>675</v>
+      </c>
+      <c r="K16" s="17">
+        <v>3000</v>
+      </c>
+      <c r="O16" s="20">
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="C17" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22">
         <v>10500</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
       <c r="C18" s="17" t="s">
         <v>64</v>
       </c>
@@ -1968,213 +2437,1712 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="17">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19">
         <v>12000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="17" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="C20" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="17">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="17">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30">
         <v>2250</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="17" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="C22" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="17">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24">
         <v>2250</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="H22" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="17">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19">
         <v>18000</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="20" t="s">
+      <c r="H23" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="62"/>
+      <c r="J23" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="C24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27">
+        <v>18000</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="60"/>
+      <c r="J24" s="17">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="17">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="B25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1200</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="60"/>
+      <c r="J25" s="17">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="C26" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24">
+        <v>1200</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="60"/>
+      <c r="J26" s="17">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B27" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22">
+        <v>7200</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="60"/>
+      <c r="J27" s="17">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="C28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19">
+        <v>7200</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="60"/>
+      <c r="J28" s="17">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="17">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>80</v>
-      </c>
       <c r="B29" s="17" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D29" s="17">
         <v>1500</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
+      <c r="H29" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="60"/>
+      <c r="J29" s="17">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="C30" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22">
         <v>1500</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="17">
+      <c r="H30" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="60"/>
+      <c r="J30" s="17">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24">
         <v>2250</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
+      <c r="H31" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="60"/>
+      <c r="K31" s="17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="C32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22">
         <v>2250</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>82</v>
+      <c r="H32" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="60"/>
+      <c r="J32" s="17">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D33" s="17">
         <v>675</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
+      <c r="H33" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="60"/>
+      <c r="J33" s="17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="C34" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22">
         <v>675</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>83</v>
+      <c r="H34" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="60"/>
+      <c r="J34" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D35" s="17">
         <v>9360</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
+      <c r="H35" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="60"/>
+      <c r="K35" s="17">
+        <v>60600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="C36" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22">
         <v>9360</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="H36" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="60"/>
+      <c r="J36" s="17">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="D37" s="17">
         <v>1500</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="17">
+      <c r="H37" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="60"/>
+      <c r="J37" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="C38" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22">
         <v>1500</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+      <c r="H38" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="59"/>
+      <c r="K38" s="17">
+        <f>SUM($D$3:$D$5)</f>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="D39" s="17">
         <v>3000</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="17">
+      <c r="H39" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="58"/>
+      <c r="K39" s="17">
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="C40" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22">
         <v>3000</v>
       </c>
+      <c r="H40" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="56"/>
+      <c r="J40" s="17">
+        <f>SUM(J24:J37)</f>
+        <v>253500</v>
+      </c>
+      <c r="K40" s="17">
+        <f>SUM(K24:K39)</f>
+        <v>253500</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="37">
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B3FBD2-5653-4CE5-B0CF-CDF025372467}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="35"/>
+    <col min="8" max="8" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.88671875" style="35"/>
+    <col min="14" max="14" width="17.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="64"/>
+      <c r="K2" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="64"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="36">
+        <v>45352</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38">
+        <v>150000</v>
+      </c>
+      <c r="H3" s="35">
+        <f>SUMIF($B$3:$B$27,H2,$D$3:$D$27)</f>
+        <v>157500</v>
+      </c>
+      <c r="I3" s="35">
+        <f>SUMIF($C$3:$C$28,H2,$E$3:$E$28)</f>
+        <v>21100</v>
+      </c>
+      <c r="K3" s="35">
+        <f>SUMIF($B$3:$B$28,K2,$D$3:$D$28)</f>
+        <v>25000</v>
+      </c>
+      <c r="L3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39">
+        <v>22000</v>
+      </c>
+      <c r="H4" s="35">
+        <f>$H$3-I3</f>
+        <v>136400</v>
+      </c>
+      <c r="K4" s="35">
+        <f>$K$3-$L$3</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="C5" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="35">
+        <f>SUM($D$3:$D$4)</f>
+        <v>172000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="36">
+        <v>45353</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="35">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="C7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37">
+        <v>6000</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="K7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="64"/>
+      <c r="N7" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="36">
+        <v>45354</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
+        <v>172000</v>
+      </c>
+      <c r="K8" s="35">
+        <f>SUMIF($B$3:$B$27,K7,D3:D28)</f>
+        <v>6000</v>
+      </c>
+      <c r="L8" s="35">
+        <v>0</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40">
+        <v>1200</v>
+      </c>
+      <c r="I9" s="35">
+        <v>172000</v>
+      </c>
+      <c r="K9" s="35">
+        <f>K8-L8</f>
+        <v>6000</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="35">
+        <v>136400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="C10" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43">
+        <f>SUM($D$8:$D$9)</f>
+        <v>4200</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="35">
+        <f>$K$3-$L$3</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="36">
+        <v>45357</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38">
+        <v>4000</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="64"/>
+      <c r="K11" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="64"/>
+      <c r="N11" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="35">
+        <v>172000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="C12" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42">
+        <v>4000</v>
+      </c>
+      <c r="H12" s="35">
+        <f>SUMIF($B$3:$B$27,$H$11,$D$3:$D$28)</f>
+        <v>1800</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0</v>
+      </c>
+      <c r="K12" s="35">
+        <f>SUMIF($B$3:$B$28,K11,$D$3:$D$28)</f>
+        <v>4200</v>
+      </c>
+      <c r="L12" s="35">
+        <f>SUMIF($C$5:$C$28,K11,$E$5:$E$28)</f>
+        <v>4200</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="35">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="36">
+        <v>45360</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44">
+        <v>7500</v>
+      </c>
+      <c r="H13" s="35">
+        <f>H12-I12</f>
+        <v>1800</v>
+      </c>
+      <c r="L13" s="35">
+        <v>0</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="35">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="C14" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42">
+        <v>7500</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="36">
+        <v>45364</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43">
+        <v>4200</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="64"/>
+      <c r="K15" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="64"/>
+      <c r="N15" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="35">
+        <v>15320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="C16" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37">
+        <v>4200</v>
+      </c>
+      <c r="H16" s="35">
+        <v>5000</v>
+      </c>
+      <c r="I16" s="35">
+        <v>0</v>
+      </c>
+      <c r="K16" s="35">
+        <v>0</v>
+      </c>
+      <c r="L16" s="35">
+        <f>SUMIF($C$5:$C$28,K15,E5:E28)</f>
+        <v>15320</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="35">
+        <v>7820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="36">
+        <v>45370</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="35">
+        <v>5000</v>
+      </c>
+      <c r="H17" s="41">
+        <v>5000</v>
+      </c>
+      <c r="L17" s="35">
+        <v>15320</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="C18" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37">
+        <v>5000</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="35">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
+        <v>45373</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38">
+        <v>3500</v>
+      </c>
+      <c r="N19" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="C20" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44">
+        <v>3500</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="K20" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="O20" s="35">
+        <f>SUM(O9:O19)</f>
+        <v>187320</v>
+      </c>
+      <c r="P20" s="35">
+        <f>SUM(P9:P19)</f>
+        <v>187320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="36">
+        <v>45376</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44">
+        <v>3820</v>
+      </c>
+      <c r="H21" s="35">
+        <f>SUMIF($B$3:$B$28,H20,$D$3:$D$29)</f>
+        <v>11320</v>
+      </c>
+      <c r="I21" s="35">
+        <f>SUMIF($C$4:$C$28,H20,$E$4:$E$28)</f>
+        <v>3500</v>
+      </c>
+      <c r="K21" s="35">
+        <v>5100</v>
+      </c>
+      <c r="L21" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="C22" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42">
+        <v>3820</v>
+      </c>
+      <c r="H22" s="35">
+        <f>H21-I21</f>
+        <v>7820</v>
+      </c>
+      <c r="K22" s="35">
+        <f>K21-L21</f>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="36">
+        <v>45380</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="35">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="C24" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37">
+        <v>5100</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="64"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="36">
+        <v>45381</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40">
+        <v>600</v>
+      </c>
+      <c r="H25" s="35">
+        <v>200</v>
+      </c>
+      <c r="I25" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="C26" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37">
+        <v>600</v>
+      </c>
+      <c r="H26" s="35">
+        <f>H25-I25</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="36">
+        <v>45382</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:L15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396D3BE9-F0F3-405C-B746-1236EC96C6F9}">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="35"/>
+    <col min="8" max="8" width="10.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="8.88671875" style="35"/>
+    <col min="16" max="16" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="64"/>
+      <c r="J2" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="64"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="35">
+        <v>23000</v>
+      </c>
+      <c r="G3" s="35">
+        <f>SUMIF($B$3:$B$33,G2,$D$3:$D$34)</f>
+        <v>26700</v>
+      </c>
+      <c r="H3" s="35">
+        <f ca="1">SUMIF($C$3:$C$35,G2,$E$3:$E$34)</f>
+        <v>22680</v>
+      </c>
+      <c r="J3" s="35">
+        <f>SUMIF($B$2:$B$32,J2,$D$2:$D$33)</f>
+        <v>17100</v>
+      </c>
+      <c r="K3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="35">
+        <v>12000</v>
+      </c>
+      <c r="G4" s="35">
+        <f ca="1">G3-$H$3</f>
+        <v>4020</v>
+      </c>
+      <c r="J4" s="35">
+        <f>J3-K3</f>
+        <v>17100</v>
+      </c>
+      <c r="M4" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="35">
+        <f>SUM($D$3:$D$4)</f>
+        <v>35000</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="35">
+        <v>8000</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="J6" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="64"/>
+      <c r="M6" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="65"/>
+      <c r="O6" s="35">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="35">
+        <v>33000</v>
+      </c>
+      <c r="G7" s="35">
+        <v>8000</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="J7" s="35">
+        <v>33000</v>
+      </c>
+      <c r="K7" s="35">
+        <v>0</v>
+      </c>
+      <c r="M7" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="65"/>
+      <c r="O7" s="35">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="35">
+        <v>15000</v>
+      </c>
+      <c r="G8" s="35">
+        <f>G7-H7</f>
+        <v>8000</v>
+      </c>
+      <c r="J8" s="35">
+        <f>J7-K7</f>
+        <v>33000</v>
+      </c>
+      <c r="M8" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" s="65"/>
+      <c r="O8" s="35">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="35">
+        <v>26000</v>
+      </c>
+      <c r="M9" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="65"/>
+      <c r="O9" s="35">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="35">
+        <v>600</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="64"/>
+      <c r="J10" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="64"/>
+      <c r="M10" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="65"/>
+      <c r="P10" s="35">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="35">
+        <v>600</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35">
+        <v>26000</v>
+      </c>
+      <c r="J11" s="35">
+        <v>7000</v>
+      </c>
+      <c r="K11" s="35">
+        <v>0</v>
+      </c>
+      <c r="M11" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11" s="65"/>
+      <c r="O11" s="35">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="35">
+        <v>7000</v>
+      </c>
+      <c r="H12" s="35">
+        <f>H11-$G$11</f>
+        <v>26000</v>
+      </c>
+      <c r="J12" s="35">
+        <f>J11-K11</f>
+        <v>7000</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="65"/>
+      <c r="O12" s="35">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="35">
+        <v>7000</v>
+      </c>
+      <c r="M13" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="65"/>
+      <c r="O13" s="35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="35">
+        <v>1100</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="64"/>
+      <c r="J14" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="64"/>
+      <c r="M14" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="65"/>
+      <c r="O14" s="35">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1100</v>
+      </c>
+      <c r="G15" s="35">
+        <f>SUM(D16+D28)</f>
+        <v>1600</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="J15" s="35">
+        <v>430</v>
+      </c>
+      <c r="K15" s="35">
+        <v>0</v>
+      </c>
+      <c r="M15" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="65"/>
+      <c r="O15" s="35">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="35">
+        <v>800</v>
+      </c>
+      <c r="G16" s="35">
+        <f>G15-H15</f>
+        <v>1600</v>
+      </c>
+      <c r="J16" s="35">
+        <f>J15-K15</f>
+        <v>430</v>
+      </c>
+      <c r="M16" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="65"/>
+      <c r="P16" s="35">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C17" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>800</v>
+      </c>
+      <c r="M17" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="65"/>
+      <c r="P17" s="35">
+        <f>$H$28</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="35">
+        <v>2700</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="64"/>
+      <c r="J18" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="64"/>
+      <c r="M18" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="65"/>
+      <c r="P18" s="35">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="35">
+        <v>2700</v>
+      </c>
+      <c r="G19" s="35">
+        <v>2400</v>
+      </c>
+      <c r="H19" s="35">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="35">
+        <v>1050</v>
+      </c>
+      <c r="K19" s="35">
+        <v>0</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="35">
+        <v>430</v>
+      </c>
+      <c r="G20" s="35">
+        <f>G19-H19</f>
+        <v>1400</v>
+      </c>
+      <c r="J20" s="35">
+        <f>J19-K19</f>
+        <v>1050</v>
+      </c>
+      <c r="O20" s="35">
+        <f>SUM(O6:O19)</f>
+        <v>74200</v>
+      </c>
+      <c r="P20" s="35">
+        <f>SUM(P10:P19)</f>
+        <v>74200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C21" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="35">
+        <v>600</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="64"/>
+      <c r="J22" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="64"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="35">
+        <v>600</v>
+      </c>
+      <c r="G23" s="35">
+        <v>0</v>
+      </c>
+      <c r="H23" s="35">
+        <f>SUM($E$5+$E$13)</f>
+        <v>42000</v>
+      </c>
+      <c r="J23" s="35">
+        <v>600</v>
+      </c>
+      <c r="K23" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="35">
+        <v>4000</v>
+      </c>
+      <c r="H24" s="35">
+        <f>H23-G23</f>
+        <v>42000</v>
+      </c>
+      <c r="J24" s="35">
+        <f>J23-K23</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="35">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="35">
+        <v>2400</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="64"/>
+      <c r="J26" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="64"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="35">
+        <v>2400</v>
+      </c>
+      <c r="G27" s="35">
+        <f>SUMIF($B$3:$B$33,G26,$D$3:$D$33)</f>
+        <v>600</v>
+      </c>
+      <c r="H27" s="35">
+        <f>SUM(E11+E15)</f>
+        <v>1700</v>
+      </c>
+      <c r="J27" s="35">
+        <v>0</v>
+      </c>
+      <c r="K27" s="35">
+        <f>SUM($E$27+$E$19)</f>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="35">
+        <v>800</v>
+      </c>
+      <c r="H28" s="35">
+        <f>H27-G27</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="35">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C31" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="35">
+        <v>1050</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER_5\ACC101\Excersie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA67B86E-75C4-4FC8-AF0D-FF183D63FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6883CE3-3270-4E40-826C-28F97D9A340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B3224CEB-0079-47FA-AF25-AB6F2CC49778}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{B3224CEB-0079-47FA-AF25-AB6F2CC49778}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="2-2ADebit&amp;Credit" sheetId="3" r:id="rId3"/>
-    <sheet name="2-4A" sheetId="4" r:id="rId4"/>
-    <sheet name="2-5A" sheetId="5" r:id="rId5"/>
+    <sheet name="2-2B" sheetId="6" r:id="rId4"/>
+    <sheet name="2-4A" sheetId="4" r:id="rId5"/>
+    <sheet name="2-4B" sheetId="8" r:id="rId6"/>
+    <sheet name="2-5A" sheetId="5" r:id="rId7"/>
+    <sheet name="2-5B" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="157">
   <si>
     <t>Cash</t>
   </si>
@@ -368,6 +371,147 @@
   </si>
   <si>
     <t>TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>Computer equipment</t>
+  </si>
+  <si>
+    <t>Brooke's capital</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Prepared insurance</t>
+  </si>
+  <si>
+    <t>Prepared expense</t>
+  </si>
+  <si>
+    <t>Advertismentising expense</t>
+  </si>
+  <si>
+    <t>INCOME STATEMENT</t>
+  </si>
+  <si>
+    <t>Total expense</t>
+  </si>
+  <si>
+    <t>GENERAL LEDGER</t>
+  </si>
+  <si>
+    <t>STATEMENTS OF OWNER'S EQUITY</t>
+  </si>
+  <si>
+    <t>Owner investment</t>
+  </si>
+  <si>
+    <t>Owner withdrew</t>
+  </si>
+  <si>
+    <t>Owner's capital at the end the period</t>
+  </si>
+  <si>
+    <t>BALANCE SHEET</t>
+  </si>
+  <si>
+    <t>Equities</t>
+  </si>
+  <si>
+    <t>Liabilites</t>
+  </si>
+  <si>
+    <t>STATEMENT OF CASH'S FLOW</t>
+  </si>
+  <si>
+    <t>Cash paid for prepared</t>
+  </si>
+  <si>
+    <t>Cash paid for salaries</t>
+  </si>
+  <si>
+    <t>Cash paid for advertising</t>
+  </si>
+  <si>
+    <t>Investting activities</t>
+  </si>
+  <si>
+    <t>Cash paid for equipment</t>
+  </si>
+  <si>
+    <t>Cash paid for computer</t>
+  </si>
+  <si>
+    <t>Cash received</t>
+  </si>
+  <si>
+    <t>Finacing activities</t>
+  </si>
+  <si>
+    <t>Cash paid for land</t>
+  </si>
+  <si>
+    <t>Cash paid for building</t>
+  </si>
+  <si>
+    <t>Cash paid for insurance</t>
+  </si>
+  <si>
+    <t>Prepared Insurance</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Prepared Rent</t>
+  </si>
+  <si>
+    <t>STATEMENT OF OWNER's CAPITAL</t>
+  </si>
+  <si>
+    <t>ASSET</t>
+  </si>
+  <si>
+    <t>Lia.&amp;Equi.</t>
+  </si>
+  <si>
+    <t>Equitity</t>
+  </si>
+  <si>
+    <t>Total Lia.&amp;Equi.</t>
+  </si>
+  <si>
+    <t>Total asset</t>
+  </si>
+  <si>
+    <t>Transaction details</t>
+  </si>
+  <si>
+    <t>Automobiles</t>
+  </si>
+  <si>
+    <t>Fee earned</t>
+  </si>
+  <si>
+    <t>NET INCOME</t>
+  </si>
+  <si>
+    <t>STATEMENT OF OWNER'S EQUITY</t>
+  </si>
+  <si>
+    <t>Total added</t>
+  </si>
+  <si>
+    <t>OWNER'S CAPTIAL  AT THE END OF THE PERIOD</t>
+  </si>
+  <si>
+    <t>ASSETS</t>
+  </si>
+  <si>
+    <t>LIABILITIES</t>
+  </si>
+  <si>
+    <t>EQUITY</t>
   </si>
 </sst>
 </file>
@@ -379,7 +523,7 @@
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0_-;\-[$£-809]* #,##0_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,8 +581,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +710,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -602,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,6 +840,36 @@
     <xf numFmtId="165" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,28 +880,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -717,23 +916,44 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1518,40 +1738,40 @@
       </c>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="63"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="12"/>
-      <c r="K18" s="46" t="s">
+      <c r="K18" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E19" s="48">
+      <c r="E19" s="64">
         <f>SUM(B16:F16)</f>
         <v>69760</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="H19" s="48">
+      <c r="F19" s="64"/>
+      <c r="H19" s="64">
         <f>SUM(H16:M16)</f>
         <v>69760</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1568,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78C2ECE-D5A8-417C-A500-A2FB8E1EEC88}">
   <dimension ref="C2:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="106" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,49 +1803,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="J2" s="51" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="J2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="69"/>
       <c r="E3">
         <v>5600</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48" t="s">
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="J4" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="50"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="J4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="69"/>
       <c r="L4" s="7">
         <v>49960</v>
       </c>
@@ -1637,55 +1857,55 @@
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="66"/>
       <c r="E5">
         <v>-800</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="50"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="7">
         <v>600</v>
       </c>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="66"/>
       <c r="E6">
         <v>-1200</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="50"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="7">
         <v>3800</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="48"/>
+      <c r="N6" s="64"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="66"/>
       <c r="E7">
         <v>-440</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="50"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="7">
         <v>1400</v>
       </c>
@@ -1697,18 +1917,18 @@
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="69"/>
       <c r="E8">
         <f>SUM(E3:E7)</f>
         <v>3160</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="50"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="7">
         <v>14000</v>
       </c>
@@ -1723,165 +1943,165 @@
         <f>SUM(L4:L8)</f>
         <v>69760</v>
       </c>
-      <c r="M9" s="48" t="s">
+      <c r="M9" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="52"/>
+      <c r="N9" s="71"/>
       <c r="O9" s="7">
         <f>SUM(O4:O8)</f>
         <v>69760</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="J12" s="53" t="s">
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="J12" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="69"/>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
       <c r="M13">
         <v>-800</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="J14" s="54" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="J14" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
       <c r="M14">
         <v>-900</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="66"/>
       <c r="E15">
         <v>56000</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
       <c r="M15">
         <v>5000</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="66"/>
       <c r="E16">
         <v>3160</v>
       </c>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
       <c r="M16">
         <v>-1200</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="J17" s="54" t="s">
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="J17" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
       <c r="M17">
         <v>-440</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="66"/>
       <c r="E18">
         <v>-700</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
       <c r="M18" s="11">
         <f>SUM(M13:M17)</f>
         <v>1660</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="69"/>
       <c r="E19">
         <f>SUM(E13:E18)</f>
         <v>58460</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
       <c r="M20">
         <v>-3200</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
       <c r="M21">
         <v>-3800</v>
       </c>
@@ -1898,11 +2118,11 @@
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J24" s="9" t="s">
@@ -1915,11 +2135,11 @@
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J25" s="54" t="s">
+      <c r="J25" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
       <c r="M25">
         <v>-700</v>
       </c>
@@ -1936,11 +2156,11 @@
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
       <c r="M27">
         <f>SUM(M22,M18,M26)</f>
         <v>49960</v>
@@ -1948,24 +2168,11 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C14:E14"/>
@@ -1982,11 +2189,24 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="J18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1997,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439880F6-F07B-4C68-B5AE-D59F3B04929A}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="63" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B29" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2020,51 +2240,51 @@
     <col min="18" max="18" width="11" style="17" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="17"/>
     <col min="20" max="20" width="11.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="17" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="8.88671875" style="17"/>
     <col min="24" max="24" width="9.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="33" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="L2" s="57" t="s">
+      <c r="H2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="72"/>
+      <c r="L2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="O2" s="57" t="s">
+      <c r="M2" s="72"/>
+      <c r="O2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="R2" s="57" t="s">
+      <c r="P2" s="72"/>
+      <c r="R2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="57"/>
+      <c r="S2" s="72"/>
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
     </row>
@@ -2150,26 +2370,26 @@
         <f>SUM(D3:D5)</f>
         <v>156000</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="K6" s="57" t="s">
+      <c r="I6" s="72"/>
+      <c r="K6" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="N6" s="57" t="s">
+      <c r="L6" s="72"/>
+      <c r="N6" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="57"/>
-      <c r="Q6" s="57" t="s">
+      <c r="O6" s="72"/>
+      <c r="Q6" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="R6" s="57"/>
-      <c r="T6" s="57" t="s">
+      <c r="R6" s="72"/>
+      <c r="T6" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="U6" s="57"/>
+      <c r="U6" s="72"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
@@ -2262,22 +2482,22 @@
       <c r="D10" s="18">
         <v>75000</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="K10" s="57" t="s">
+      <c r="I10" s="72"/>
+      <c r="K10" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="57"/>
-      <c r="N10" s="57" t="s">
+      <c r="L10" s="72"/>
+      <c r="N10" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="57"/>
-      <c r="T10" s="57" t="s">
+      <c r="O10" s="72"/>
+      <c r="T10" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="U10" s="57"/>
+      <c r="U10" s="72"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
@@ -2354,18 +2574,18 @@
       <c r="D14" s="22">
         <v>5700</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="K14" s="57" t="s">
+      <c r="I14" s="72"/>
+      <c r="K14" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="57"/>
-      <c r="N14" s="57" t="s">
+      <c r="L14" s="72"/>
+      <c r="N14" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="57"/>
+      <c r="O14" s="72"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
@@ -2480,12 +2700,12 @@
       <c r="E22" s="24">
         <v>2250</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
@@ -2498,10 +2718,10 @@
       <c r="D23" s="19">
         <v>18000</v>
       </c>
-      <c r="H23" s="62" t="s">
+      <c r="H23" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="62"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="34" t="s">
         <v>57</v>
       </c>
@@ -2518,10 +2738,10 @@
       <c r="E24" s="27">
         <v>18000</v>
       </c>
-      <c r="H24" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="60"/>
+      <c r="H24" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="74"/>
       <c r="J24" s="17">
         <v>2715</v>
       </c>
@@ -2536,10 +2756,10 @@
       <c r="D25" s="17">
         <v>1200</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="60"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="17">
         <v>8250</v>
       </c>
@@ -2553,10 +2773,10 @@
       <c r="E26" s="24">
         <v>1200</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="60"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="17">
         <v>67500</v>
       </c>
@@ -2572,10 +2792,10 @@
       <c r="D27" s="22">
         <v>7200</v>
       </c>
-      <c r="H27" s="60" t="s">
+      <c r="H27" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="60"/>
+      <c r="I27" s="74"/>
       <c r="J27" s="17">
         <v>54000</v>
       </c>
@@ -2589,10 +2809,10 @@
       <c r="E28" s="19">
         <v>7200</v>
       </c>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="60"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="17">
         <v>75000</v>
       </c>
@@ -2607,10 +2827,10 @@
       <c r="D29" s="17">
         <v>1500</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H29" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="60"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="17">
         <v>6000</v>
       </c>
@@ -2624,10 +2844,10 @@
       <c r="E30" s="22">
         <v>1500</v>
       </c>
-      <c r="H30" s="60" t="s">
+      <c r="H30" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="60"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="17">
         <v>22800</v>
       </c>
@@ -2643,10 +2863,10 @@
       <c r="D31" s="24">
         <v>2250</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="60"/>
+      <c r="I31" s="74"/>
       <c r="K31" s="17">
         <v>1200</v>
       </c>
@@ -2660,10 +2880,10 @@
       <c r="E32" s="22">
         <v>2250</v>
       </c>
-      <c r="H32" s="60" t="s">
+      <c r="H32" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="60"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="17">
         <v>9360</v>
       </c>
@@ -2678,10 +2898,10 @@
       <c r="D33" s="17">
         <v>675</v>
       </c>
-      <c r="H33" s="60" t="s">
+      <c r="H33" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="60"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="17">
         <v>1200</v>
       </c>
@@ -2695,10 +2915,10 @@
       <c r="E34" s="22">
         <v>675</v>
       </c>
-      <c r="H34" s="60" t="s">
+      <c r="H34" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="60"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="17">
         <v>3000</v>
       </c>
@@ -2713,10 +2933,10 @@
       <c r="D35" s="17">
         <v>9360</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="I35" s="60"/>
+      <c r="I35" s="74"/>
       <c r="K35" s="17">
         <v>60600</v>
       </c>
@@ -2730,10 +2950,10 @@
       <c r="E36" s="22">
         <v>9360</v>
       </c>
-      <c r="H36" s="60" t="s">
+      <c r="H36" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="60"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="17">
         <v>675</v>
       </c>
@@ -2748,10 +2968,10 @@
       <c r="D37" s="17">
         <v>1500</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="60"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="17">
         <v>3000</v>
       </c>
@@ -2765,10 +2985,10 @@
       <c r="E38" s="22">
         <v>1500</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="59"/>
+      <c r="I38" s="77"/>
       <c r="K38" s="17">
         <f>SUM($D$3:$D$5)</f>
         <v>156000</v>
@@ -2784,10 +3004,10 @@
       <c r="D39" s="17">
         <v>3000</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="58"/>
+      <c r="I39" s="76"/>
       <c r="K39" s="17">
         <v>35700</v>
       </c>
@@ -2801,10 +3021,10 @@
       <c r="E40" s="22">
         <v>3000</v>
       </c>
-      <c r="H40" s="56" t="s">
+      <c r="H40" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="I40" s="56"/>
+      <c r="I40" s="75"/>
       <c r="J40" s="17">
         <f>SUM(J24:J37)</f>
         <v>253500</v>
@@ -2816,6 +3036,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="N10:O10"/>
@@ -2832,37 +3073,1209 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FE8D23-C0F5-4400-8118-FF1574B44797}">
+  <dimension ref="A1:AD40"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="35"/>
+    <col min="7" max="8" width="9.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="35"/>
+    <col min="10" max="11" width="9.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="35" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" style="35" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="35" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="35"/>
+    <col min="16" max="16" width="23.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.88671875" style="35"/>
+    <col min="21" max="21" width="19.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.88671875" style="35"/>
+    <col min="27" max="27" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.109375" style="35" customWidth="1"/>
+    <col min="30" max="30" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="G1" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="J2" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="84"/>
+      <c r="M2" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="P2" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="U2" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="AA2" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49">
+        <v>45000</v>
+      </c>
+      <c r="G3" s="35">
+        <f>SUMIF($B$3:$B$41,G2,$D$3:$D$41)</f>
+        <v>52800</v>
+      </c>
+      <c r="H3" s="35">
+        <f>SUMIF($C$3:$C$40,C8,$E$3:$E$40)</f>
+        <v>42150</v>
+      </c>
+      <c r="J3" s="35">
+        <f>SUMIF($B$3:$B$40,J2,$D$3:$D$40)</f>
+        <v>5250</v>
+      </c>
+      <c r="K3" s="35">
+        <v>0</v>
+      </c>
+      <c r="M3" s="35">
+        <f>SUMIF($B$3:$B$40,M2,$D$3:$D$40)</f>
+        <v>31500</v>
+      </c>
+      <c r="N3" s="35">
+        <v>0</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="35">
+        <f>$H$12</f>
+        <v>16150</v>
+      </c>
+      <c r="AA3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD3" s="35">
+        <f>SUM(AC4:AC5)</f>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="35">
+        <v>4500</v>
+      </c>
+      <c r="G4" s="35">
+        <f>G3-H3</f>
+        <v>10650</v>
+      </c>
+      <c r="J4" s="35">
+        <f>J3-K3</f>
+        <v>5250</v>
+      </c>
+      <c r="M4" s="35">
+        <f>M3-N3</f>
+        <v>31500</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="35">
+        <f>$G$4</f>
+        <v>10650</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="35">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B5" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="35">
+        <v>28000</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="35">
+        <f>$J$4</f>
+        <v>5250</v>
+      </c>
+      <c r="V5" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="85"/>
+      <c r="X5" s="35">
+        <f>$G$16</f>
+        <v>3200</v>
+      </c>
+      <c r="AB5" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC5" s="35">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C6" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="35">
+        <f>SUM($D$3:$D$5)</f>
+        <v>77500</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="84"/>
+      <c r="J6" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="84"/>
+      <c r="M6" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="84"/>
+      <c r="P6" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" s="35">
+        <f>$M$4</f>
+        <v>31500</v>
+      </c>
+      <c r="V6" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="85"/>
+      <c r="X6" s="35">
+        <f>$J$16</f>
+        <v>320</v>
+      </c>
+      <c r="AA6" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD6" s="35">
+        <f>SUM(AC7:AC8)</f>
+        <v>56405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="35">
+        <v>24000</v>
+      </c>
+      <c r="G7" s="35">
+        <v>24000</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="J7" s="35">
+        <v>21000</v>
+      </c>
+      <c r="K7" s="35">
+        <v>0</v>
+      </c>
+      <c r="M7" s="35">
+        <v>6600</v>
+      </c>
+      <c r="N7" s="35">
+        <v>0</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="35">
+        <f>$G$8</f>
+        <v>24000</v>
+      </c>
+      <c r="V7" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="W7" s="85"/>
+      <c r="X7" s="35">
+        <f>$G$21</f>
+        <v>425</v>
+      </c>
+      <c r="AB7" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC7" s="35">
+        <f>$D$3</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39">
+        <v>4800</v>
+      </c>
+      <c r="G8" s="35">
+        <f>G7-H7</f>
+        <v>24000</v>
+      </c>
+      <c r="J8" s="35">
+        <f>J7-K7</f>
+        <v>21000</v>
+      </c>
+      <c r="M8" s="35">
+        <f>M7-N7</f>
+        <v>6600</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="35">
+        <f>$J$8</f>
+        <v>21000</v>
+      </c>
+      <c r="V8" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="W8" s="85"/>
+      <c r="X8" s="35">
+        <f>$M$21</f>
+        <v>800</v>
+      </c>
+      <c r="AB8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC8" s="35">
+        <f>$X$10</f>
+        <v>11405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="35">
+        <v>19200</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" s="35">
+        <f>$M$8</f>
+        <v>6600</v>
+      </c>
+      <c r="U9" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="35">
+        <f>SUM(X5:X8)</f>
+        <v>4745</v>
+      </c>
+      <c r="AA9" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="35">
+        <v>21000</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="84"/>
+      <c r="J10" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="84"/>
+      <c r="M10" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="84"/>
+      <c r="P10" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="35">
+        <f>$H$12</f>
+        <v>16150</v>
+      </c>
+      <c r="U10" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="35">
+        <f>X3-X9</f>
+        <v>11405</v>
+      </c>
+      <c r="AB10" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC10" s="35">
+        <f>$Q$17</f>
+        <v>3875</v>
+      </c>
+      <c r="AD10" s="35">
+        <f>$AC$10</f>
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C11" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39">
+        <v>21000</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35">
+        <f>SUMIF($C$3:$C$40,G10,$E$3:$E$40)</f>
+        <v>16150</v>
+      </c>
+      <c r="J11" s="35">
+        <v>0</v>
+      </c>
+      <c r="K11" s="35">
+        <f>SUMIF($C$3:$C$40,J10,$E$3:$E$40)</f>
+        <v>22000</v>
+      </c>
+      <c r="M11" s="35">
+        <f>SUMIF($B$3:$B$40,B19,$D$3:$D$40)</f>
+        <v>12950</v>
+      </c>
+      <c r="N11" s="35">
+        <f>SUMIF($C$3:$C$40,C28,$E$3:$E$40)</f>
+        <v>4600</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="35">
+        <f>$K$12</f>
+        <v>22000</v>
+      </c>
+      <c r="AA11" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="35">
+        <f>AD3+AD6-AD10</f>
+        <v>85030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="35">
+        <v>6600</v>
+      </c>
+      <c r="H12" s="35">
+        <f>H11-G11</f>
+        <v>16150</v>
+      </c>
+      <c r="K12" s="35">
+        <f>K11-J11</f>
+        <v>22000</v>
+      </c>
+      <c r="M12" s="35">
+        <f>M11-N11</f>
+        <v>8350</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="35">
+        <f>$M$12</f>
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C13" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39">
+        <v>6600</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="35">
+        <f>$G$16</f>
+        <v>3200</v>
+      </c>
+      <c r="U13" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="AA13" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49">
+        <v>3200</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="84"/>
+      <c r="J14" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="84"/>
+      <c r="M14" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="84"/>
+      <c r="P14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="35">
+        <f>$J$16</f>
+        <v>320</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="35">
+        <f>$G$4</f>
+        <v>10650</v>
+      </c>
+      <c r="W14" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA14" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB14" s="86"/>
+      <c r="AD14" s="35">
+        <f>AC18-SUM(AC15:AC17)</f>
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C15" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="35">
+        <v>3200</v>
+      </c>
+      <c r="G15" s="35">
+        <f>SUM(D29+D37)</f>
+        <v>3200</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="J15" s="35">
+        <v>320</v>
+      </c>
+      <c r="K15" s="35">
+        <v>0</v>
+      </c>
+      <c r="M15" s="35">
+        <f>SUMIF($B$3:$B$40,B31,$D$3:$D$40)</f>
+        <v>750</v>
+      </c>
+      <c r="N15" s="35">
+        <f>SUMIF($C$3:$C$40,C22,$E$3:$E$40)</f>
+        <v>1070</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="35">
+        <v>320</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="35">
+        <f>$Q$5</f>
+        <v>5250</v>
+      </c>
+      <c r="W15" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15" s="35">
+        <f>$N$16</f>
+        <v>320</v>
+      </c>
+      <c r="AB15" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC15" s="35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="35">
+        <v>3500</v>
+      </c>
+      <c r="G16" s="35">
+        <f>G15-H15</f>
+        <v>3200</v>
+      </c>
+      <c r="J16" s="35">
+        <v>320</v>
+      </c>
+      <c r="N16" s="35">
+        <f>N15-M15</f>
+        <v>320</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="35">
+        <f>$G$21</f>
+        <v>425</v>
+      </c>
+      <c r="U16" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16" s="35">
+        <f>$Q$6</f>
+        <v>31500</v>
+      </c>
+      <c r="W16" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="X16" s="35">
+        <f>$K$12</f>
+        <v>22000</v>
+      </c>
+      <c r="AB16" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC16" s="35">
+        <f>$G$16</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C17" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39">
+        <v>700</v>
+      </c>
+      <c r="P17" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="35">
+        <f>$J$21</f>
+        <v>3875</v>
+      </c>
+      <c r="U17" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="V17" s="35">
+        <f>$Q$7</f>
+        <v>24000</v>
+      </c>
+      <c r="W17" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB17" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC17" s="35">
+        <f>$M$21</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="35">
+        <v>2800</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="35">
+        <f>$M$21</f>
+        <v>800</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="V18" s="35">
+        <f>$Q$8</f>
+        <v>21000</v>
+      </c>
+      <c r="W18" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="X18" s="81">
+        <f t="shared" ref="X18" si="0">$AD$11</f>
+        <v>85030</v>
+      </c>
+      <c r="AB18" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC18" s="35">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="35">
+        <v>3750</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="84"/>
+      <c r="J19" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="84"/>
+      <c r="M19" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19" s="84"/>
+      <c r="P19" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="R19" s="35">
+        <f>$E$6</f>
+        <v>77500</v>
+      </c>
+      <c r="U19" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="V19" s="35">
+        <f>$Q$9</f>
+        <v>6600</v>
+      </c>
+      <c r="W19" s="80"/>
+      <c r="X19" s="81"/>
+      <c r="AA19" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB19" s="86"/>
+      <c r="AD19" s="35">
+        <f>SUM(AC20:AC24)</f>
+        <v>33850</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="35">
+        <v>3750</v>
+      </c>
+      <c r="G20" s="35">
+        <v>425</v>
+      </c>
+      <c r="H20" s="35">
+        <v>0</v>
+      </c>
+      <c r="J20" s="35">
+        <v>3875</v>
+      </c>
+      <c r="K20" s="35">
+        <v>0</v>
+      </c>
+      <c r="M20" s="35">
+        <v>800</v>
+      </c>
+      <c r="N20" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="35">
+        <f>SUM(Q4:Q19)</f>
+        <v>115970</v>
+      </c>
+      <c r="R20" s="35">
+        <f>SUM(R10:R19)</f>
+        <v>115970</v>
+      </c>
+      <c r="U20" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="V20" s="35">
+        <f>$Q$12</f>
+        <v>8350</v>
+      </c>
+      <c r="AB20" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC20" s="35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="35">
+        <v>750</v>
+      </c>
+      <c r="G21" s="35">
+        <v>425</v>
+      </c>
+      <c r="J21" s="35">
+        <v>3875</v>
+      </c>
+      <c r="M21" s="35">
+        <v>800</v>
+      </c>
+      <c r="U21" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="V21" s="35">
+        <f>SUM(V14:V20)</f>
+        <v>107350</v>
+      </c>
+      <c r="W21" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="X21" s="35">
+        <f>SUM(X15:X19)</f>
+        <v>107350</v>
+      </c>
+      <c r="AB21" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC21" s="35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C22" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="35">
+        <v>750</v>
+      </c>
+      <c r="AB22" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC22" s="35">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="35">
+        <v>9200</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="84"/>
+      <c r="AB23" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC23" s="35">
+        <v>21000</v>
+      </c>
+      <c r="AD23" s="9"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="35">
+        <v>9200</v>
+      </c>
+      <c r="G24" s="35">
+        <v>0</v>
+      </c>
+      <c r="H24" s="35">
+        <f>$E$6</f>
+        <v>77500</v>
+      </c>
+      <c r="AB24" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC24" s="35">
+        <v>6600</v>
+      </c>
+      <c r="AD24"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="35">
+        <v>320</v>
+      </c>
+      <c r="H25" s="35">
+        <f>H24-G24</f>
+        <v>77500</v>
+      </c>
+      <c r="AA25" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB25" s="86"/>
+      <c r="AD25" s="35">
+        <f>AC26-AC27</f>
+        <v>41125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C26" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="35">
+        <v>320</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC26" s="35">
+        <v>45000</v>
+      </c>
+      <c r="AD26" s="9"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49">
+        <v>4600</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC27" s="35">
+        <f>$Q$17</f>
+        <v>3875</v>
+      </c>
+      <c r="AD27"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C28" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="35">
+        <v>4600</v>
+      </c>
+      <c r="AA28" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB28" s="68"/>
+      <c r="AD28" s="35">
+        <f>AD25-AD19+AD14</f>
+        <v>10650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="35">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C30" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C32" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="35">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="35">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="35">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B3FBD2-5653-4CE5-B0CF-CDF025372467}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -2883,36 +4296,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="64"/>
-      <c r="K2" s="64" t="s">
+      <c r="H2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="83"/>
+      <c r="K2" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="64"/>
+      <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
@@ -2989,19 +4402,19 @@
       <c r="E7" s="37">
         <v>6000</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="K7" s="64" t="s">
+      <c r="I7" s="83"/>
+      <c r="K7" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="N7" s="64" t="s">
+      <c r="L7" s="83"/>
+      <c r="N7" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
@@ -3089,14 +4502,14 @@
       <c r="D11" s="38">
         <v>4000</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="K11" s="64" t="s">
+      <c r="I11" s="83"/>
+      <c r="K11" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="64"/>
+      <c r="L11" s="83"/>
       <c r="N11" s="45" t="s">
         <v>97</v>
       </c>
@@ -3187,14 +4600,14 @@
       <c r="D15" s="43">
         <v>4200</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="K15" s="64" t="s">
+      <c r="I15" s="83"/>
+      <c r="K15" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="64"/>
+      <c r="L15" s="83"/>
       <c r="N15" s="45" t="s">
         <v>5</v>
       </c>
@@ -3297,10 +4710,10 @@
       <c r="E20" s="44">
         <v>3500</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="64"/>
+      <c r="I20" s="83"/>
       <c r="K20" s="35" t="s">
         <v>98</v>
       </c>
@@ -3380,10 +4793,10 @@
       <c r="E24" s="37">
         <v>5100</v>
       </c>
-      <c r="H24" s="64" t="s">
+      <c r="H24" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="64"/>
+      <c r="I24" s="83"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="36">
@@ -3439,30 +4852,840 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8B8806-EF77-4E81-9940-7C52DF2FB4CC}">
+  <dimension ref="A1:W33"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="35"/>
+    <col min="7" max="7" width="18.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="35"/>
+    <col min="11" max="11" width="18.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="35"/>
+    <col min="16" max="16" width="15.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="35" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="83"/>
+      <c r="J2" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="M2" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="83"/>
+      <c r="P2" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="83"/>
+      <c r="S2" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" s="83"/>
+      <c r="V2" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" s="83"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="87">
+        <v>45536</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="35">
+        <v>28000</v>
+      </c>
+      <c r="G3" s="35">
+        <f>SUMIF($B$3:$B$28,G2,$D$3:$D$28)</f>
+        <v>38400</v>
+      </c>
+      <c r="H3" s="35">
+        <f>SUMIF($C$3:$C$28,G2,E3:$E$28)</f>
+        <v>31660</v>
+      </c>
+      <c r="J3" s="35">
+        <f>SUMIF($B$3:$B$28,J2,$D$3:$D$28)</f>
+        <v>34000</v>
+      </c>
+      <c r="K3" s="35">
+        <v>0</v>
+      </c>
+      <c r="M3" s="35">
+        <f>SUMIF($B$3:$B$28,M2,$D$3:$D$28)</f>
+        <v>2900</v>
+      </c>
+      <c r="N3" s="35">
+        <v>0</v>
+      </c>
+      <c r="P3" s="35">
+        <f>SUMIF($B$3:$B$28,P2,$D$3:$D$28)</f>
+        <v>15300</v>
+      </c>
+      <c r="Q3" s="35">
+        <f>$E$20</f>
+        <v>7800</v>
+      </c>
+      <c r="S3" s="35">
+        <f>$D$17</f>
+        <v>5200</v>
+      </c>
+      <c r="T3" s="35">
+        <v>0</v>
+      </c>
+      <c r="V3" s="35">
+        <f>$D$6</f>
+        <v>10500</v>
+      </c>
+      <c r="W3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="87"/>
+      <c r="B4" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52">
+        <v>25000</v>
+      </c>
+      <c r="G4" s="35">
+        <f>G3-H3</f>
+        <v>6740</v>
+      </c>
+      <c r="J4" s="35">
+        <f>J3-K3</f>
+        <v>34000</v>
+      </c>
+      <c r="M4" s="35">
+        <f>M3-N3</f>
+        <v>2900</v>
+      </c>
+      <c r="P4" s="35">
+        <f>P3-Q3</f>
+        <v>7500</v>
+      </c>
+      <c r="S4" s="35">
+        <f>S3-T3</f>
+        <v>5200</v>
+      </c>
+      <c r="V4" s="35">
+        <f>V3-W3</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="87"/>
+      <c r="C5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="35">
+        <f>SUM($D$3:$D$4)</f>
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="87">
+        <v>45537</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="35">
+        <v>10500</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="J6" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="83"/>
+      <c r="M6" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="83"/>
+      <c r="P6" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="83"/>
+      <c r="S6" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="83"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="87"/>
+      <c r="C7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="35">
+        <v>10500</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0</v>
+      </c>
+      <c r="H7" s="35">
+        <f>SUM($D$3:$D$4)</f>
+        <v>53000</v>
+      </c>
+      <c r="J7" s="35">
+        <f>$D$27</f>
+        <v>460</v>
+      </c>
+      <c r="K7" s="35">
+        <v>0</v>
+      </c>
+      <c r="M7" s="35">
+        <f>$D$23</f>
+        <v>5300</v>
+      </c>
+      <c r="N7" s="35">
+        <v>0</v>
+      </c>
+      <c r="P7" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="35">
+        <f>SUMIF($C$3:$C$28,P6,$E$3:$E$28)</f>
+        <v>17900</v>
+      </c>
+      <c r="S7" s="35">
+        <f>SUMIF($B$3:$B$28,S6,$D$3:$D$28)</f>
+        <v>10200</v>
+      </c>
+      <c r="T7" s="35">
+        <f>SUMIF($C$3:$C$28,S6,$E$3:$E$28)</f>
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="87">
+        <v>45539</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52">
+        <v>9000</v>
+      </c>
+      <c r="H8" s="35">
+        <f>H7-G7</f>
+        <v>53000</v>
+      </c>
+      <c r="J8" s="35">
+        <f>J7-K7</f>
+        <v>460</v>
+      </c>
+      <c r="M8" s="35">
+        <f>M7-N7</f>
+        <v>5300</v>
+      </c>
+      <c r="T8" s="35">
+        <f>T7-S7</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="87"/>
+      <c r="B9" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="35">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="87"/>
+      <c r="C10" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53">
+        <f>SUM($D$8:$D$9)</f>
+        <v>10200</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="K10" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="P10" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="87">
+        <v>45543</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="35">
+        <v>2600</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="35">
+        <f>$I$20</f>
+        <v>17900</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="35">
+        <f>$D$4</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="87"/>
+      <c r="C12" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42">
+        <v>2600</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="35">
+        <f>$G$4</f>
+        <v>6740</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="87">
+        <v>45547</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39">
+        <v>13400</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="35">
+        <f>$J$4</f>
+        <v>34000</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="35">
+        <f>$J$8</f>
+        <v>460</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="35">
+        <f>$D$3</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="87"/>
+      <c r="C14" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42">
+        <v>13400</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="35">
+        <f>$M$4</f>
+        <v>2900</v>
+      </c>
+      <c r="K14" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="82"/>
+      <c r="M14" s="35">
+        <f>M11-M13</f>
+        <v>17440</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="35">
+        <f>$M$14</f>
+        <v>17440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="87">
+        <v>45548</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53">
+        <v>10200</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="35">
+        <f>$P$4</f>
+        <v>7500</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="87"/>
+      <c r="C16" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="35">
+        <v>10200</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="35">
+        <f>$S$4</f>
+        <v>5200</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="R16" s="35">
+        <f>$H$19</f>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="87">
+        <v>45554</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="35">
+        <v>5200</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="35">
+        <f>$V$4</f>
+        <v>10500</v>
+      </c>
+      <c r="P17" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="35">
+        <f>R11+R13+R14-R16</f>
+        <v>65140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="88"/>
+      <c r="C18" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="35">
+        <v>5200</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="35">
+        <f>$J$8</f>
+        <v>460</v>
+      </c>
+      <c r="K18" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="87">
+        <v>45557</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="35">
+        <v>7800</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="35">
+        <f>$M$8</f>
+        <v>5300</v>
+      </c>
+      <c r="K19" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="N19" s="82"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="88"/>
+      <c r="C20" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39">
+        <v>7800</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="35">
+        <f>$Q$7</f>
+        <v>17900</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="35">
+        <f>$G$4</f>
+        <v>6740</v>
+      </c>
+      <c r="M20" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="87">
+        <v>45559</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39">
+        <v>1900</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="35">
+        <f>$T$8</f>
+        <v>1700</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="35">
+        <f>$J$4</f>
+        <v>34000</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="35">
+        <f>$T$8</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="88"/>
+      <c r="C22" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42">
+        <v>1900</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="35">
+        <f>$H$8</f>
+        <v>53000</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="35">
+        <f>$M$4</f>
+        <v>2900</v>
+      </c>
+      <c r="M22" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="87">
+        <v>45563</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="35">
+        <v>5300</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="35">
+        <f>SUM(H12:H19)</f>
+        <v>72600</v>
+      </c>
+      <c r="I23" s="35">
+        <f>SUM(I20:I22)</f>
+        <v>72600</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="35">
+        <f>$P$4</f>
+        <v>7500</v>
+      </c>
+      <c r="M23" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="35">
+        <f>$R$17</f>
+        <v>65140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="88"/>
+      <c r="C24" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="35">
+        <v>5300</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" s="35">
+        <f>$S$4</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="87">
+        <v>45564</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="35">
+        <v>1700</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="L25" s="35">
+        <f>$V$4</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="88"/>
+      <c r="C26" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53">
+        <v>1700</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="35">
+        <f>SUM(L20:L25)</f>
+        <v>66840</v>
+      </c>
+      <c r="M26" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N26" s="35">
+        <f>SUM(N21:N25)</f>
+        <v>66840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="87">
+        <v>45565</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="88"/>
+      <c r="C28" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="P2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396D3BE9-F0F3-405C-B746-1236EC96C6F9}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3478,13 +5701,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -3499,14 +5722,14 @@
       <c r="E2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="64"/>
-      <c r="J2" s="64" t="s">
+      <c r="G2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="83"/>
+      <c r="J2" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="64"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
@@ -3549,12 +5772,12 @@
         <f>J3-K3</f>
         <v>17100</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" s="35" t="s">
@@ -3584,18 +5807,18 @@
       <c r="D6" s="35">
         <v>8000</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="J6" s="64" t="s">
+      <c r="H6" s="83"/>
+      <c r="J6" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="M6" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="65"/>
+      <c r="K6" s="83"/>
+      <c r="M6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="85"/>
       <c r="O6" s="35">
         <v>4020</v>
       </c>
@@ -3619,10 +5842,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="M7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="65"/>
+      <c r="N7" s="85"/>
       <c r="O7" s="35">
         <v>17100</v>
       </c>
@@ -3642,10 +5865,10 @@
         <f>J7-K7</f>
         <v>33000</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="N8" s="65"/>
+      <c r="N8" s="85"/>
       <c r="O8" s="35">
         <v>8000</v>
       </c>
@@ -3657,10 +5880,10 @@
       <c r="E9" s="35">
         <v>26000</v>
       </c>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="65"/>
+      <c r="N9" s="85"/>
       <c r="O9" s="35">
         <v>33000</v>
       </c>
@@ -3675,18 +5898,18 @@
       <c r="D10" s="35">
         <v>600</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="J10" s="64" t="s">
+      <c r="H10" s="83"/>
+      <c r="J10" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="M10" s="65" t="s">
+      <c r="K10" s="83"/>
+      <c r="M10" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="65"/>
+      <c r="N10" s="85"/>
       <c r="P10" s="35">
         <v>26000</v>
       </c>
@@ -3710,10 +5933,10 @@
       <c r="K11" s="35">
         <v>0</v>
       </c>
-      <c r="M11" s="65" t="s">
+      <c r="M11" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="N11" s="65"/>
+      <c r="N11" s="85"/>
       <c r="O11" s="35">
         <v>7000</v>
       </c>
@@ -3736,10 +5959,10 @@
         <f>J11-K11</f>
         <v>7000</v>
       </c>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="N12" s="65"/>
+      <c r="N12" s="85"/>
       <c r="O12" s="35">
         <v>1600</v>
       </c>
@@ -3751,10 +5974,10 @@
       <c r="E13" s="35">
         <v>7000</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="65"/>
+      <c r="N13" s="85"/>
       <c r="O13" s="35">
         <v>430</v>
       </c>
@@ -3769,18 +5992,18 @@
       <c r="D14" s="35">
         <v>1100</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="J14" s="64" t="s">
+      <c r="H14" s="83"/>
+      <c r="J14" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="K14" s="64"/>
-      <c r="M14" s="65" t="s">
+      <c r="K14" s="83"/>
+      <c r="M14" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="65"/>
+      <c r="N14" s="85"/>
       <c r="O14" s="35">
         <v>1400</v>
       </c>
@@ -3805,10 +6028,10 @@
       <c r="K15" s="35">
         <v>0</v>
       </c>
-      <c r="M15" s="65" t="s">
+      <c r="M15" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="N15" s="65"/>
+      <c r="N15" s="85"/>
       <c r="O15" s="35">
         <v>1050</v>
       </c>
@@ -3831,10 +6054,10 @@
         <f>J15-K15</f>
         <v>430</v>
       </c>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="N16" s="65"/>
+      <c r="N16" s="85"/>
       <c r="P16" s="35">
         <v>42000</v>
       </c>
@@ -3846,10 +6069,10 @@
       <c r="E17" s="35">
         <v>800</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="M17" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="65"/>
+      <c r="N17" s="85"/>
       <c r="P17" s="35">
         <f>$H$28</f>
         <v>1100</v>
@@ -3865,18 +6088,18 @@
       <c r="D18" s="35">
         <v>2700</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="64"/>
-      <c r="J18" s="64" t="s">
+      <c r="H18" s="83"/>
+      <c r="J18" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="64"/>
-      <c r="M18" s="65" t="s">
+      <c r="K18" s="83"/>
+      <c r="M18" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="65"/>
+      <c r="N18" s="85"/>
       <c r="P18" s="35">
         <v>5100</v>
       </c>
@@ -3952,14 +6175,14 @@
       <c r="D22" s="35">
         <v>600</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="64"/>
-      <c r="J22" s="64" t="s">
+      <c r="H22" s="83"/>
+      <c r="J22" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="64"/>
+      <c r="K22" s="83"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C23" s="35" t="s">
@@ -4019,14 +6242,14 @@
       <c r="D26" s="35">
         <v>2400</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="64"/>
-      <c r="J26" s="64" t="s">
+      <c r="H26" s="83"/>
+      <c r="J26" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="64"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C27" s="35" t="s">
@@ -4114,14 +6337,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="M4:P4"/>
@@ -4138,6 +6353,14 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M16:N16"/>
@@ -4146,4 +6369,1023 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A41CC4D-D078-4C0A-BC8F-F5C827A86AA2}">
+  <dimension ref="A1:AC33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="35"/>
+    <col min="7" max="7" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="35"/>
+    <col min="13" max="13" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.88671875" style="35"/>
+    <col min="19" max="19" width="22.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="35"/>
+    <col min="22" max="22" width="11.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.88671875" style="35"/>
+    <col min="25" max="25" width="18.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="82"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="82"/>
+      <c r="M2" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="82"/>
+      <c r="S2" s="51"/>
+      <c r="U2" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="V2" s="82"/>
+      <c r="AA2" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="82"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="35">
+        <v>30000</v>
+      </c>
+      <c r="G3" s="35">
+        <v>80000</v>
+      </c>
+      <c r="H3" s="35">
+        <f>$E$8</f>
+        <v>40000</v>
+      </c>
+      <c r="J3" s="35">
+        <f>$D$3</f>
+        <v>30000</v>
+      </c>
+      <c r="M3" s="35">
+        <f>$D$6</f>
+        <v>30000</v>
+      </c>
+      <c r="O3" s="35">
+        <f>$D$7</f>
+        <v>170000</v>
+      </c>
+      <c r="Q3" s="35">
+        <f>$D$10</f>
+        <v>2400</v>
+      </c>
+      <c r="U3" s="35">
+        <f>$E$13</f>
+        <v>18000</v>
+      </c>
+      <c r="AA3" s="57">
+        <f>$D$26</f>
+        <v>5200</v>
+      </c>
+      <c r="AB3" s="57">
+        <f>$D$30</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="81"/>
+      <c r="B4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>80000</v>
+      </c>
+      <c r="G4" s="35">
+        <f>$D$18</f>
+        <v>6000</v>
+      </c>
+      <c r="H4" s="35">
+        <f>$E$17</f>
+        <v>1500</v>
+      </c>
+      <c r="J4" s="35">
+        <f>$D$14</f>
+        <v>6000</v>
+      </c>
+      <c r="M4" s="35">
+        <f>M3-N3</f>
+        <v>30000</v>
+      </c>
+      <c r="O4" s="35">
+        <f>O3-P3</f>
+        <v>170000</v>
+      </c>
+      <c r="Q4" s="35">
+        <f>Q3-S3</f>
+        <v>2400</v>
+      </c>
+      <c r="U4" s="35">
+        <f>U3-V4</f>
+        <v>18000</v>
+      </c>
+      <c r="AA4" s="35">
+        <f>AA3-AB3</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="81"/>
+      <c r="C5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="35">
+        <f>SUM(D3:D4)</f>
+        <v>110000</v>
+      </c>
+      <c r="G5" s="35">
+        <f>$D$30</f>
+        <v>3800</v>
+      </c>
+      <c r="H5" s="35">
+        <f>$E$23</f>
+        <v>2400</v>
+      </c>
+      <c r="J5" s="57">
+        <f>$D$24</f>
+        <v>20000</v>
+      </c>
+      <c r="K5" s="57"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="35">
+        <v>30000</v>
+      </c>
+      <c r="H6" s="35">
+        <f>$E$25</f>
+        <v>20000</v>
+      </c>
+      <c r="J6" s="35">
+        <f>J5+J4+J3-K3</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="81"/>
+      <c r="B7" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="35">
+        <v>170000</v>
+      </c>
+      <c r="H7" s="35">
+        <f>$D$28</f>
+        <v>1500</v>
+      </c>
+      <c r="M7" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="82"/>
+      <c r="P7" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="82"/>
+      <c r="S7" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="82"/>
+      <c r="V7" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="W7" s="48"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="81"/>
+      <c r="C8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="35">
+        <v>40000</v>
+      </c>
+      <c r="H8" s="35">
+        <f>$E$33</f>
+        <v>6400</v>
+      </c>
+      <c r="N8" s="35">
+        <f>$E$9</f>
+        <v>160000</v>
+      </c>
+      <c r="P8" s="35">
+        <f>$D$22</f>
+        <v>2400</v>
+      </c>
+      <c r="Q8" s="35">
+        <f>$E$11</f>
+        <v>2400</v>
+      </c>
+      <c r="T8" s="35">
+        <f>$E$5</f>
+        <v>110000</v>
+      </c>
+      <c r="W8" s="35">
+        <f>$E$19</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="81"/>
+      <c r="C9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="35">
+        <v>160000</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57">
+        <f>$E$21</f>
+        <v>800</v>
+      </c>
+      <c r="N9" s="35">
+        <f>$N$8</f>
+        <v>160000</v>
+      </c>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57">
+        <f>$E$15</f>
+        <v>6000</v>
+      </c>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57">
+        <f>$E$13</f>
+        <v>18000</v>
+      </c>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57">
+        <f>$E$27</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="35">
+        <v>2400</v>
+      </c>
+      <c r="G10" s="58">
+        <f>SUM(G3:G9)</f>
+        <v>89800</v>
+      </c>
+      <c r="H10" s="58">
+        <f>SUM(H3:H9)</f>
+        <v>72600</v>
+      </c>
+      <c r="Q10" s="35">
+        <f>Q9+Q8-P8</f>
+        <v>6000</v>
+      </c>
+      <c r="T10" s="35">
+        <f>SUM(T8:T9)</f>
+        <v>128000</v>
+      </c>
+      <c r="W10" s="35">
+        <f>SUM(W8:W9)</f>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="81"/>
+      <c r="C11" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="35">
+        <v>2400</v>
+      </c>
+      <c r="G11" s="35">
+        <f>G10-H10</f>
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="35">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="81"/>
+      <c r="C13" s="35" t="str">
+        <f>$C$5</f>
+        <v>Owner's capital</v>
+      </c>
+      <c r="E13" s="35">
+        <f>$D$12</f>
+        <v>18000</v>
+      </c>
+      <c r="M13" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="82"/>
+      <c r="P13" s="82" t="str">
+        <f>$B$20</f>
+        <v>Utilities expense</v>
+      </c>
+      <c r="Q13" s="82"/>
+      <c r="S13" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="T13" s="82"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="35" t="str">
+        <f>$B$3</f>
+        <v>Office equipment</v>
+      </c>
+      <c r="D14" s="35">
+        <v>6000</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="M14" s="35">
+        <f>$D$16</f>
+        <v>1500</v>
+      </c>
+      <c r="P14" s="35">
+        <f>$D$20</f>
+        <v>800</v>
+      </c>
+      <c r="S14" s="35">
+        <f>$D$32</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="81"/>
+      <c r="C15" s="35" t="str">
+        <f>$C$11</f>
+        <v>Account payable</v>
+      </c>
+      <c r="E15" s="35">
+        <f>$D$14</f>
+        <v>6000</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="57">
+        <f>$D$28</f>
+        <v>1500</v>
+      </c>
+      <c r="N15" s="57"/>
+      <c r="P15" s="35">
+        <f>$P$14</f>
+        <v>800</v>
+      </c>
+      <c r="S15" s="35">
+        <f>$S$14</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1500</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
+        <f>$G$11</f>
+        <v>17200</v>
+      </c>
+      <c r="M16" s="35">
+        <f>SUM(M14:M15)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="81"/>
+      <c r="C17" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="35">
+        <f>$J$6</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="35">
+        <v>6000</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="35">
+        <f>$M$4</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="81"/>
+      <c r="C19" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="35">
+        <f>$D$18</f>
+        <v>6000</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="35">
+        <f>$O$4</f>
+        <v>170000</v>
+      </c>
+      <c r="M19" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="S19" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="Y19" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="35">
+        <v>800</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="35">
+        <f>$Q$4</f>
+        <v>2400</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="35">
+        <f>$W$10</f>
+        <v>11200</v>
+      </c>
+      <c r="P20" s="35">
+        <f>$O$20</f>
+        <v>11200</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="U20" s="35">
+        <f>$J$3</f>
+        <v>30000</v>
+      </c>
+      <c r="V20" s="35">
+        <f>$U$20</f>
+        <v>30000</v>
+      </c>
+      <c r="Y20" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA20" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="81"/>
+      <c r="C21" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35">
+        <f>$D$20</f>
+        <v>800</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="35">
+        <f>$U$4</f>
+        <v>18000</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="35">
+        <f t="shared" ref="Z21:Z27" si="0">I16</f>
+        <v>17200</v>
+      </c>
+      <c r="AA21" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB21" s="90"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="35" t="str">
+        <f>$C$15</f>
+        <v>Account payable</v>
+      </c>
+      <c r="D22" s="35">
+        <f>$D$10</f>
+        <v>2400</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="35">
+        <f>$AA$4</f>
+        <v>1400</v>
+      </c>
+      <c r="N22" s="35" t="str">
+        <f>$M$13</f>
+        <v>Salaries expense</v>
+      </c>
+      <c r="O22" s="35">
+        <f>$M$16</f>
+        <v>3000</v>
+      </c>
+      <c r="S22" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="T22" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="35">
+        <f>$D$4</f>
+        <v>80000</v>
+      </c>
+      <c r="Y22" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z22" s="35">
+        <f t="shared" si="0"/>
+        <v>56000</v>
+      </c>
+      <c r="AB22" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC22" s="35">
+        <f t="shared" ref="AC22:AC23" si="1">J23</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="81"/>
+      <c r="C23" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="35">
+        <f>$D$22</f>
+        <v>2400</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="35">
+        <f>$N$9</f>
+        <v>160000</v>
+      </c>
+      <c r="N23" s="35" t="str">
+        <f>$P$13</f>
+        <v>Utilities expense</v>
+      </c>
+      <c r="O23" s="35">
+        <f>$P$15</f>
+        <v>800</v>
+      </c>
+      <c r="T23" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="U23" s="35">
+        <f>$T$9</f>
+        <v>18000</v>
+      </c>
+      <c r="Y23" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z23" s="35">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="AB23" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC23" s="35">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="35">
+        <f>$Q$10</f>
+        <v>6000</v>
+      </c>
+      <c r="M24" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" s="83"/>
+      <c r="P24" s="35">
+        <f>SUM(O22:O23)</f>
+        <v>3800</v>
+      </c>
+      <c r="S24" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="V24" s="35">
+        <f>SUM(U22:U23)</f>
+        <v>98000</v>
+      </c>
+      <c r="Y24" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z24" s="35">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="AA24" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB24" s="90"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="81"/>
+      <c r="C25" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="35">
+        <f>$T$10</f>
+        <v>128000</v>
+      </c>
+      <c r="M25" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="61">
+        <f>P20-P24</f>
+        <v>7400</v>
+      </c>
+      <c r="S25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z25" s="35">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="AB25" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC25" s="35">
+        <f>$V$27</f>
+        <v>121600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="35">
+        <v>5200</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="35">
+        <f>$W$10</f>
+        <v>11200</v>
+      </c>
+      <c r="T26" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="U26" s="35">
+        <f>$S$15</f>
+        <v>6400</v>
+      </c>
+      <c r="V26" s="35">
+        <f>$U$26</f>
+        <v>6400</v>
+      </c>
+      <c r="Y26" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z26" s="35">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="81"/>
+      <c r="C27" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="35">
+        <v>5200</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="35">
+        <f>$M$16</f>
+        <v>3000</v>
+      </c>
+      <c r="S27" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="V27" s="35">
+        <f>V20+V24-V26</f>
+        <v>121600</v>
+      </c>
+      <c r="Y27" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z27" s="35">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="35" t="str">
+        <f>$B$16</f>
+        <v>Salaries expense</v>
+      </c>
+      <c r="D28" s="35">
+        <f>$D$16</f>
+        <v>1500</v>
+      </c>
+      <c r="H28" s="35" t="str">
+        <f>$B$20</f>
+        <v>Utilities expense</v>
+      </c>
+      <c r="I28" s="35">
+        <f>$P$15</f>
+        <v>800</v>
+      </c>
+      <c r="Z28" s="35">
+        <f>SUM(Z21:Z27)</f>
+        <v>295000</v>
+      </c>
+      <c r="AA28" s="35">
+        <f>SUM(AC22:AC25)</f>
+        <v>287600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="81"/>
+      <c r="C29" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="35">
+        <f>$E$17</f>
+        <v>1500</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="35">
+        <f>$S$15</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <v>3800</v>
+      </c>
+      <c r="I30" s="35">
+        <f>SUM(I16:I29)</f>
+        <v>305200</v>
+      </c>
+      <c r="J30" s="35">
+        <f>SUM(J23:J26)</f>
+        <v>305200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="81"/>
+      <c r="C31" s="35" t="str">
+        <f>$B$26</f>
+        <v>Account receivable</v>
+      </c>
+      <c r="E31" s="35">
+        <f>$D$30</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="35">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="81"/>
+      <c r="C33" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="35">
+        <f>$D$32</f>
+        <v>6400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>